--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F520C25-A1A1-4672-96E2-BC660111C573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A545A-CF9E-4D85-8520-A1D2A3F23CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="440" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="5013" yWindow="780" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Pending Test Results for COVID-19</t>
+    <t>Pending</t>
   </si>
   <si>
-    <t>Positive Test Results</t>
+    <t>Positive</t>
   </si>
   <si>
-    <t>Negative Test Results</t>
+    <t>Negative</t>
   </si>
   <si>
-    <t>Total Tested</t>
+    <t>Total_tested</t>
   </si>
   <si>
-    <t>In Quarantine and Monitored by TCHD</t>
+    <t>In_quarantine</t>
   </si>
   <si>
-    <t>Released from Quarantine</t>
+    <t>Released_quarantine</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,13 +109,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -444,10 +444,10 @@
     <col min="4" max="4" width="14.05859375" customWidth="1"/>
     <col min="5" max="5" width="14.17578125" customWidth="1"/>
     <col min="6" max="6" width="16.41015625" customWidth="1"/>
-    <col min="7" max="7" width="16.76171875" customWidth="1"/>
+    <col min="7" max="7" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A545A-CF9E-4D85-8520-A1D2A3F23CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0D069-64D1-4F00-B4D8-52642C0FF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5013" yWindow="780" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk35725696" localSheetId="0">TompkinsCountyHealthDepartmentC!$A$1</definedName>
+    <definedName name="_Hlk35725696" localSheetId="0">TompkinsCountyHealthDepartmentC!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Released_quarantine</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -116,6 +119,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,256 +434,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.87890625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.9375" customWidth="1"/>
-    <col min="3" max="3" width="14.29296875" customWidth="1"/>
-    <col min="4" max="4" width="14.05859375" customWidth="1"/>
-    <col min="5" max="5" width="14.17578125" customWidth="1"/>
-    <col min="6" max="6" width="16.41015625" customWidth="1"/>
-    <col min="7" max="7" width="19.64453125" customWidth="1"/>
+    <col min="2" max="2" width="19.87890625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.9375" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" customWidth="1"/>
+    <col min="5" max="5" width="14.05859375" customWidth="1"/>
+    <col min="6" max="6" width="14.17578125" customWidth="1"/>
+    <col min="7" max="7" width="16.41015625" customWidth="1"/>
+    <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>43907</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>69</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>35</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>107</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>82</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>43908</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>93</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>46</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>146</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>86</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>43909</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>224</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>49</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>279</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>293</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>43910</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>280</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>88</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>379</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>515</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>43911</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>302</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>135</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>449</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>418</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>43912</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>276</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>160</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>451</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>397</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
         <v>43913</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>251</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>325</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>592</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>244</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <v>43914</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>218</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>430</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>666</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>326</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <v>43915</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>236</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>23</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>472</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>731</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>351</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>484</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H10">
+    <sortCondition ref="B2:B10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0D069-64D1-4F00-B4D8-52642C0FF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E98D57-6B11-460B-81ED-7C49D5A70D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5013" yWindow="780" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Deaths</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -120,6 +123,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,9 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -449,7 +457,7 @@
     <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -474,8 +482,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,8 +511,11 @@
       <c r="H2" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -527,8 +541,11 @@
       <c r="H3" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -554,8 +571,11 @@
       <c r="H4" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -581,8 +601,11 @@
       <c r="H5" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -608,8 +631,11 @@
       <c r="H6" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -635,8 +661,11 @@
       <c r="H7" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -662,8 +691,11 @@
       <c r="H8" s="2">
         <v>344</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -689,8 +721,11 @@
       <c r="H9" s="2">
         <v>441</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -715,6 +750,9 @@
       </c>
       <c r="H10" s="2">
         <v>484</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E98D57-6B11-460B-81ED-7C49D5A70D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36AE7DC-99D8-4CC2-860F-9C3819A1A30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5013" yWindow="780" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="7373" yWindow="1240" windowWidth="16300" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -755,6 +755,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B10+1</f>
+        <v>43916</v>
+      </c>
+      <c r="C11" s="7">
+        <v>462</v>
+      </c>
+      <c r="D11" s="7">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7">
+        <v>515</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1009</v>
+      </c>
+      <c r="G11" s="7">
+        <v>354</v>
+      </c>
+      <c r="H11" s="7">
+        <v>526</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H10">
     <sortCondition ref="B2:B10"/>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36AE7DC-99D8-4CC2-860F-9C3819A1A30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B276DD2-E08D-42DA-8538-901E0C24FFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7373" yWindow="1240" windowWidth="16300" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="1633" yWindow="1160" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -785,6 +785,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B11+1</f>
+        <v>43917</v>
+      </c>
+      <c r="C12" s="7">
+        <v>628</v>
+      </c>
+      <c r="D12" s="7">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7">
+        <v>515</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1191</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H10">
     <sortCondition ref="B2:B10"/>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B276DD2-E08D-42DA-8538-901E0C24FFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277D5C1-55F4-4242-A533-3E1164E80538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1633" yWindow="1160" windowWidth="19260" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="1200" yWindow="687" windowWidth="19260" windowHeight="12406" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Deaths</t>
+  </si>
+  <si>
+    <t>Currently Hospitalized</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -124,6 +127,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -457,7 +463,7 @@
     <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -485,8 +491,11 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,8 +523,11 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -544,8 +556,11 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -574,8 +589,11 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -604,8 +622,11 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -634,8 +655,11 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -664,8 +688,11 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -694,8 +721,11 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -724,8 +754,11 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -754,8 +787,11 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -784,8 +820,11 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -813,6 +852,43 @@
       </c>
       <c r="I12" s="7">
         <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B12+1</f>
+        <v>43918</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="7">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7">
+        <v>624</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277D5C1-55F4-4242-A533-3E1164E80538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F540C5D-F7D1-46C2-B926-CCDBBCB7FEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="687" windowWidth="19260" windowHeight="12406" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -875,8 +875,8 @@
       <c r="E13" s="7">
         <v>624</v>
       </c>
-      <c r="F13" t="e">
-        <v>#N/A</v>
+      <c r="F13">
+        <v>1191</v>
       </c>
       <c r="G13" t="e">
         <v>#N/A</v>
@@ -888,6 +888,40 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B13+1</f>
+        <v>43919</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="7">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>996</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1197</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F540C5D-F7D1-46C2-B926-CCDBBCB7FEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7DC4D-4EB2-43DD-BB4E-850449CA19EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="687" windowWidth="19260" windowHeight="12406" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="1200" yWindow="687" windowWidth="13160" windowHeight="12406" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Currently Hospitalized</t>
+  </si>
+  <si>
+    <t>Discharged from Hospital</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -463,7 +466,7 @@
     <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="43" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -494,8 +497,11 @@
       <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,8 +532,11 @@
       <c r="J2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -559,8 +568,11 @@
       <c r="J3" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -592,8 +604,11 @@
       <c r="J4" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -625,8 +640,11 @@
       <c r="J5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -658,8 +676,11 @@
       <c r="J6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -691,8 +712,11 @@
       <c r="J7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -724,8 +748,11 @@
       <c r="J8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -757,8 +784,11 @@
       <c r="J9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -790,8 +820,11 @@
       <c r="J10" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -823,8 +856,11 @@
       <c r="J11" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -856,8 +892,11 @@
       <c r="J12" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <f>A12+1</f>
         <v>12</v>
@@ -890,8 +929,11 @@
       <c r="J13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <f>A13+1</f>
         <v>13</v>
@@ -923,6 +965,46 @@
       </c>
       <c r="J14">
         <v>2</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B14+1</f>
+        <v>43920</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="7">
+        <v>73</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1096</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1427</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7DC4D-4EB2-43DD-BB4E-850449CA19EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598A64F-63D0-4B99-BC0A-8296E199E665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="687" windowWidth="13160" windowHeight="12406" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="4953" yWindow="913" windowWidth="15934" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Discharged from Hospital</t>
+  </si>
+  <si>
+    <t>Discharged from hospital today</t>
+  </si>
+  <si>
+    <t>Recovered</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -466,7 +472,7 @@
     <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -500,8 +506,14 @@
       <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,8 +547,14 @@
       <c r="K2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -571,8 +589,14 @@
       <c r="K3" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -607,8 +631,14 @@
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -643,8 +673,14 @@
       <c r="K5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -679,8 +715,14 @@
       <c r="K6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -715,8 +757,14 @@
       <c r="K7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -751,8 +799,14 @@
       <c r="K8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -787,8 +841,14 @@
       <c r="K9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -823,8 +883,14 @@
       <c r="K10" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -859,8 +925,14 @@
       <c r="K11" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -895,8 +967,14 @@
       <c r="K12" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
         <f>A12+1</f>
         <v>12</v>
@@ -932,8 +1010,14 @@
       <c r="K13" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14">
         <f>A13+1</f>
         <v>13</v>
@@ -969,8 +1053,14 @@
       <c r="K14" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15">
         <f>A14+1</f>
         <v>14</v>
@@ -1005,6 +1095,56 @@
       </c>
       <c r="K15" s="7">
         <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B15+1</f>
+        <v>43921</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="7">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1101</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1419</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <f>K15+L16</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598A64F-63D0-4B99-BC0A-8296E199E665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4959554-EA56-4141-AC03-9C804F52AF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4953" yWindow="913" windowWidth="15934" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f>B10+1</f>
+        <f t="shared" ref="B11:B16" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <f>B11+1</f>
+        <f t="shared" si="1"/>
         <v>43917</v>
       </c>
       <c r="C12" s="7">
@@ -980,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <f>B12+1</f>
+        <f t="shared" si="1"/>
         <v>43918</v>
       </c>
       <c r="C13" t="e">
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <f>B13+1</f>
+        <f t="shared" si="1"/>
         <v>43919</v>
       </c>
       <c r="C14" t="e">
@@ -1066,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <f>B14+1</f>
+        <f t="shared" si="1"/>
         <v>43920</v>
       </c>
       <c r="C15" t="e">
@@ -1109,11 +1109,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <f>B15+1</f>
+        <f t="shared" si="1"/>
         <v>43921</v>
       </c>
-      <c r="C16" t="e">
-        <v>#N/A</v>
+      <c r="C16">
+        <v>242</v>
       </c>
       <c r="D16" s="7">
         <v>76</v>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4959554-EA56-4141-AC03-9C804F52AF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578FA461-E509-4ADF-AFE7-18A89648734B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4953" yWindow="913" windowWidth="15934" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="787" yWindow="420" windowWidth="13193" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B16" si="1">B10+1</f>
+        <f t="shared" ref="B11:B17" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -1145,6 +1145,50 @@
       </c>
       <c r="M16" s="7">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>43922</v>
+      </c>
+      <c r="C17">
+        <v>242</v>
+      </c>
+      <c r="D17" s="7">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1158</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1480</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <f>K16+L17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578FA461-E509-4ADF-AFE7-18A89648734B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A95F01-6E6C-41F7-B5E1-BC83C3B4C60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="787" yWindow="420" windowWidth="13193" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B17" si="1">B10+1</f>
+        <f t="shared" ref="B11:B18" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -1189,6 +1189,50 @@
       </c>
       <c r="M17" s="7">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>43923</v>
+      </c>
+      <c r="C18">
+        <v>172</v>
+      </c>
+      <c r="D18" s="7">
+        <v>87</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1294</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1553</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <f>K17+L18</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A95F01-6E6C-41F7-B5E1-BC83C3B4C60D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6461F-0431-4C00-B4DD-C28A20F80510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="787" yWindow="420" windowWidth="13193" windowHeight="12407" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="787" yWindow="420" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B18" si="1">B10+1</f>
+        <f t="shared" ref="B11:B19" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" ref="A13:A19" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="5">
@@ -1062,7 +1062,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="5">
@@ -1105,7 +1105,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="5">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="5">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -1233,6 +1233,50 @@
       </c>
       <c r="M18" s="7">
         <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>43924</v>
+      </c>
+      <c r="C19">
+        <v>164</v>
+      </c>
+      <c r="D19" s="7">
+        <v>93</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1363</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1620</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7">
+        <f>K18+L19</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6461F-0431-4C00-B4DD-C28A20F80510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13EA5A-30AA-45F1-AE00-91A54D02C944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="787" yWindow="420" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B19" si="1">B10+1</f>
+        <f t="shared" ref="B11:B20" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A19" si="2">A12+1</f>
+        <f t="shared" ref="A13:A20" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1277,6 +1277,50 @@
       </c>
       <c r="M19" s="7">
         <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>43925</v>
+      </c>
+      <c r="C20">
+        <v>105</v>
+      </c>
+      <c r="D20" s="7">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1426</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1626</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
+        <f>K19+L20</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13EA5A-30AA-45F1-AE00-91A54D02C944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FEF8F0-FCDC-47E3-B5B1-7FFA156D34C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B20" si="1">B10+1</f>
+        <f t="shared" ref="B11:B21" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A20" si="2">A12+1</f>
+        <f t="shared" ref="A13:A21" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1321,6 +1321,50 @@
       </c>
       <c r="M20" s="7">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>43926</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21" s="7">
+        <v>98</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1449</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1637</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <f>K20+L21</f>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FEF8F0-FCDC-47E3-B5B1-7FFA156D34C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B823D01-8E28-4E1F-884D-F62AD09FA493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B21" si="1">B10+1</f>
+        <f t="shared" ref="B11:B22" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A21" si="2">A12+1</f>
+        <f t="shared" ref="A13:A22" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <f>K15+L16</f>
+        <f t="shared" ref="K16:K22" si="3">K15+L16</f>
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="7">
-        <f>K16+L17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L17">
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="7">
-        <f>K17+L18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L18">
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="7">
-        <f>K18+L19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L19">
@@ -1313,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="7">
-        <f>K19+L20</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L20">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <f>K20+L21</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L21">
@@ -1365,6 +1365,50 @@
       </c>
       <c r="M21" s="7">
         <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="1"/>
+        <v>43927</v>
+      </c>
+      <c r="C22">
+        <v>430</v>
+      </c>
+      <c r="D22" s="7">
+        <v>102</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1456</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1988</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B823D01-8E28-4E1F-884D-F62AD09FA493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E57F3F-45B6-4CC2-9CE1-703605AC83A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K22" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B22" si="1">B10+1</f>
+        <f t="shared" ref="B11:B23" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A22" si="2">A12+1</f>
+        <f t="shared" ref="A13:A23" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:K22" si="3">K15+L16</f>
+        <f t="shared" ref="K16:K23" si="3">K15+L16</f>
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -1409,6 +1409,50 @@
       </c>
       <c r="M22" s="7">
         <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="1"/>
+        <v>43928</v>
+      </c>
+      <c r="C23">
+        <v>574</v>
+      </c>
+      <c r="D23" s="7">
+        <v>103</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1456</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2133</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E57F3F-45B6-4CC2-9CE1-703605AC83A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DEBAF5-5990-47C3-A8D8-999220321492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:K23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B23" si="1">B10+1</f>
+        <f t="shared" ref="B11:B24" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A23" si="2">A12+1</f>
+        <f t="shared" ref="A13:A24" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:K23" si="3">K15+L16</f>
+        <f t="shared" ref="K16:K24" si="3">K15+L16</f>
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -1453,6 +1453,50 @@
       </c>
       <c r="M23" s="7">
         <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>43929</v>
+      </c>
+      <c r="C24">
+        <v>359</v>
+      </c>
+      <c r="D24" s="7">
+        <v>105</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1782</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2246</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DEBAF5-5990-47C3-A8D8-999220321492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4878180-A80E-43B3-8CC1-249B63DCCAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B24" si="1">B10+1</f>
+        <f t="shared" ref="B11:B25" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -976,7 +976,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A24" si="2">A12+1</f>
+        <f t="shared" ref="A13:A25" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:K24" si="3">K15+L16</f>
+        <f t="shared" ref="K16:K25" si="3">K15+L16</f>
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -1497,6 +1497,50 @@
       </c>
       <c r="M24" s="7">
         <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>43930</v>
+      </c>
+      <c r="C25">
+        <v>257</v>
+      </c>
+      <c r="D25" s="7">
+        <v>107</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1910</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2274</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>5</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4878180-A80E-43B3-8CC1-249B63DCCAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EADBF2-764A-4A3E-83D4-43E44ECD320C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Recovered</t>
+  </si>
+  <si>
+    <t>Tompkins-non-resident Deaths</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -472,7 +475,7 @@
     <col min="8" max="8" width="19.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -512,8 +515,11 @@
       <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -553,8 +559,11 @@
       <c r="M2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -595,8 +604,11 @@
       <c r="M3" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -637,8 +649,11 @@
       <c r="M4" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -679,8 +694,11 @@
       <c r="M5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -721,8 +739,11 @@
       <c r="M6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -763,8 +784,11 @@
       <c r="M7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -805,8 +829,11 @@
       <c r="M8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -847,8 +874,11 @@
       <c r="M9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -889,13 +919,16 @@
       <c r="M10" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B25" si="1">B10+1</f>
+        <f t="shared" ref="B11:B26" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -931,8 +964,11 @@
       <c r="M11" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -973,10 +1009,13 @@
       <c r="M12" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A25" si="2">A12+1</f>
+        <f t="shared" ref="A13:A26" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1016,8 +1055,11 @@
       <c r="M13" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1059,8 +1101,11 @@
       <c r="M14" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1102,8 +1147,11 @@
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1137,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:K25" si="3">K15+L16</f>
+        <f t="shared" ref="K16:K26" si="3">K15+L16</f>
         <v>1</v>
       </c>
       <c r="L16" s="7">
@@ -1146,8 +1194,11 @@
       <c r="M16" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1190,8 +1241,11 @@
       <c r="M17" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1234,8 +1288,11 @@
       <c r="M18" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1278,8 +1335,11 @@
       <c r="M19" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1322,8 +1382,11 @@
       <c r="M20" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1366,8 +1429,11 @@
       <c r="M21" s="7">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1410,8 +1476,11 @@
       <c r="M22" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1454,8 +1523,11 @@
       <c r="M23" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1498,8 +1570,11 @@
       <c r="M24" s="7">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="N24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1541,6 +1616,56 @@
       </c>
       <c r="M25" s="7">
         <v>76</v>
+      </c>
+      <c r="N25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="1"/>
+        <v>43931</v>
+      </c>
+      <c r="C26">
+        <v>127</v>
+      </c>
+      <c r="D26" s="7">
+        <v>112</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2051</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2290</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>82</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EADBF2-764A-4A3E-83D4-43E44ECD320C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D01F8-64A5-49C8-9DF3-AE7952339723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1867" yWindow="813" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="1067" yWindow="287" windowWidth="22146" windowHeight="12686" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B26" si="1">B10+1</f>
+        <f t="shared" ref="B11:B28" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -1015,7 +1015,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A26" si="2">A12+1</f>
+        <f t="shared" ref="A13:A28" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1666,6 +1666,98 @@
       </c>
       <c r="N26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="1"/>
+        <v>43932</v>
+      </c>
+      <c r="C27">
+        <v>181</v>
+      </c>
+      <c r="D27" s="7">
+        <v>113</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2109</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2403</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>82</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="1"/>
+        <v>43933</v>
+      </c>
+      <c r="C28">
+        <v>136</v>
+      </c>
+      <c r="D28" s="7">
+        <v>113</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2159</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2408</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
+        <v>83</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
+++ b/TompkinsCountyHealthDepartmentCovid19TimeSeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid-19-TC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D01F8-64A5-49C8-9DF3-AE7952339723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A738716-0BCF-426C-A23B-8D45A85FED29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1067" yWindow="287" windowWidth="22146" windowHeight="12686" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
+    <workbookView xWindow="3347" yWindow="0" windowWidth="22146" windowHeight="12687" xr2:uid="{1C93E160-DEF0-4C5C-99D7-27E91B473392}"/>
   </bookViews>
   <sheets>
     <sheet name="TompkinsCountyHealthDepartmentC" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983A088-8A80-47BD-A01C-EDB7EE767BA4}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" ref="B11:B28" si="1">B10+1</f>
+        <f t="shared" ref="B11:B30" si="1">B10+1</f>
         <v>43916</v>
       </c>
       <c r="C11" s="7">
@@ -1015,7 +1015,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13">
-        <f t="shared" ref="A13:A28" si="2">A12+1</f>
+        <f t="shared" ref="A13:A30" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -1757,6 +1757,98 @@
         <v>83</v>
       </c>
       <c r="N28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="1"/>
+        <v>43934</v>
+      </c>
+      <c r="C29">
+        <v>136</v>
+      </c>
+      <c r="D29" s="7">
+        <v>113</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2419</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>83</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="1"/>
+        <v>43935</v>
+      </c>
+      <c r="C30">
+        <v>141</v>
+      </c>
+      <c r="D30" s="7">
+        <v>116</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2249</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2506</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>87</v>
+      </c>
+      <c r="N30" s="7">
         <v>2</v>
       </c>
     </row>
